--- a/biology/Botanique/Wallacea_(plante)/Wallacea_(plante).xlsx
+++ b/biology/Botanique/Wallacea_(plante)/Wallacea_(plante).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Wallacea est un genre de plantes à fleurs de la famille des Ochnaceae.
 </t>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom scientifique complet (avec auteur) de ce taxon est Wallacea Spruce ex Benth. &amp; Hook.fil.[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom scientifique complet (avec auteur) de ce taxon est Wallacea Spruce ex Benth. &amp; Hook.fil..
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des taxons de rang inférieur</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Liste des espèces selon GBIF       (3 mai 2021)[2], The Plant List            (3 mai 2021)[3] et Tropicos                                           (3 mai 2021)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Liste des espèces selon GBIF       (3 mai 2021), The Plant List            (3 mai 2021) et Tropicos                                           (3 mai 2021) :
 Wallacea insignis Spruce ex Benth. &amp; Hook. f.
 Wallacea multiflora Ducke
 Wallacea riparia Gleason &amp; A.C. Sm.</t>
